--- a/data/Contact_Recreation/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/data/Contact_Recreation/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">

--- a/data/Contact_Recreation/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/data/Contact_Recreation/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="123">
   <si>
     <t>site name</t>
   </si>
@@ -49,301 +49,322 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>5700</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>4880</t>
-  </si>
-  <si>
-    <t>15500</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>24201</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>7270</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>3280</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>9210</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>3390</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>2359</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>4350</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>24200</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>5170</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>1019</t>
+    <t>3900.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>610.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>640.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>2900.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>690.0</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>5700.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>1130.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>529.0</t>
+  </si>
+  <si>
+    <t>703.0</t>
+  </si>
+  <si>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>4880.0</t>
+  </si>
+  <si>
+    <t>15500.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>24201.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>3870.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>554.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>1314.0</t>
+  </si>
+  <si>
+    <t>7270.0</t>
+  </si>
+  <si>
+    <t>3450.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>369.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>987.0</t>
+  </si>
+  <si>
+    <t>571.0</t>
+  </si>
+  <si>
+    <t>3280.0</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>9210.0</t>
+  </si>
+  <si>
+    <t>1334.0</t>
+  </si>
+  <si>
+    <t>738.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>2910.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>327.0</t>
+  </si>
+  <si>
+    <t>880.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>833.0</t>
+  </si>
+  <si>
+    <t>3390.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>7700.0</t>
+  </si>
+  <si>
+    <t>1725.0</t>
+  </si>
+  <si>
+    <t>2359.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>4350.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>663.0</t>
+  </si>
+  <si>
+    <t>4110.0</t>
+  </si>
+  <si>
+    <t>2610.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>24200.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>5170.0</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>759.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
+  </si>
+  <si>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>448.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>2046.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>689.0</t>
+  </si>
+  <si>
+    <t>1019.0</t>
+  </si>
+  <si>
+    <t>3255.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>1850.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>546.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>573.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -356,6 +377,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -720,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,13 +793,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -795,13 +819,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -821,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -847,13 +871,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -873,13 +897,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -899,13 +923,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -925,13 +949,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -951,13 +975,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -977,13 +1001,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1003,13 +1027,13 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1029,13 +1053,13 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1055,13 +1079,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1081,13 +1105,13 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1107,13 +1131,13 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1133,13 +1157,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1159,13 +1183,13 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1185,13 +1209,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1211,13 +1235,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1237,13 +1261,13 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1263,13 +1287,13 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1289,13 +1313,13 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1315,13 +1339,13 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1341,13 +1365,13 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1367,10 +1391,10 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1390,13 +1414,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1416,13 +1440,13 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1442,13 +1466,13 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1468,13 +1492,13 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1494,13 +1518,13 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1520,13 +1544,13 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1546,13 +1570,13 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1572,13 +1596,13 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1598,13 +1622,13 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1624,13 +1648,13 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1650,13 +1674,13 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1676,13 +1700,13 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1702,13 +1726,13 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -1728,13 +1752,13 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1754,13 +1778,13 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1780,13 +1804,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1806,13 +1830,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1832,13 +1856,13 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1858,13 +1882,13 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1884,13 +1908,13 @@
         <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1910,13 +1934,13 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1936,13 +1960,13 @@
         <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -1962,13 +1986,13 @@
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -1988,13 +2012,13 @@
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2014,13 +2038,13 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -2040,13 +2064,13 @@
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -2066,13 +2090,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2092,13 +2116,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -2118,13 +2142,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H54">
         <v>500</v>
@@ -2144,13 +2168,13 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2170,13 +2194,13 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2196,13 +2220,13 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2222,13 +2246,13 @@
         <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2248,13 +2272,13 @@
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H59">
         <v>500</v>
@@ -2274,13 +2298,13 @@
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2300,13 +2324,13 @@
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2326,13 +2350,13 @@
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2352,13 +2376,13 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2378,13 +2402,13 @@
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2404,13 +2428,13 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2430,13 +2454,13 @@
         <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2456,13 +2480,13 @@
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2482,13 +2506,13 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2508,13 +2532,13 @@
         <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2534,13 +2558,13 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2560,13 +2584,13 @@
         <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2586,13 +2610,13 @@
         <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2612,13 +2636,13 @@
         <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2638,13 +2662,13 @@
         <v>61</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2664,13 +2688,13 @@
         <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2690,13 +2714,13 @@
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2716,13 +2740,13 @@
         <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2742,13 +2766,13 @@
         <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2768,13 +2792,13 @@
         <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2794,13 +2818,13 @@
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2820,13 +2844,13 @@
         <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G81" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2846,13 +2870,13 @@
         <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2872,13 +2896,13 @@
         <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2898,13 +2922,13 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2924,13 +2948,13 @@
         <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2950,13 +2974,13 @@
         <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G86" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2976,13 +3000,13 @@
         <v>32</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3002,13 +3026,13 @@
         <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3028,13 +3052,13 @@
         <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3054,13 +3078,13 @@
         <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G90" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3080,13 +3104,13 @@
         <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3106,13 +3130,13 @@
         <v>71</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3132,13 +3156,13 @@
         <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3158,13 +3182,13 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3184,13 +3208,13 @@
         <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G95" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3210,13 +3234,13 @@
         <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3236,13 +3260,13 @@
         <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3262,13 +3286,13 @@
         <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3288,13 +3312,13 @@
         <v>73</v>
       </c>
       <c r="E99" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3314,13 +3338,13 @@
         <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G100" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3340,13 +3364,13 @@
         <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3366,13 +3390,13 @@
         <v>75</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G102" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3392,13 +3416,13 @@
         <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3418,13 +3442,13 @@
         <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3444,13 +3468,13 @@
         <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3470,13 +3494,13 @@
         <v>36</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G106" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3496,13 +3520,13 @@
         <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G107" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3522,13 +3546,13 @@
         <v>36</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3548,13 +3572,13 @@
         <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3574,13 +3598,13 @@
         <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3600,13 +3624,13 @@
         <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G111" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3626,13 +3650,13 @@
         <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G112" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3652,13 +3676,13 @@
         <v>79</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3678,13 +3702,13 @@
         <v>36</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G114" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3704,13 +3728,13 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3730,13 +3754,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G116" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3756,13 +3780,13 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F117" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G117" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3782,13 +3806,13 @@
         <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G118" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3808,13 +3832,13 @@
         <v>36</v>
       </c>
       <c r="E119" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F119" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G119" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3834,13 +3858,13 @@
         <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F120" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G120" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3860,13 +3884,13 @@
         <v>55</v>
       </c>
       <c r="E121" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F121" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3886,13 +3910,13 @@
         <v>45</v>
       </c>
       <c r="E122" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F122" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G122" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3912,13 +3936,13 @@
         <v>81</v>
       </c>
       <c r="E123" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F123" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3938,13 +3962,13 @@
         <v>82</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F124" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G124" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3964,13 +3988,13 @@
         <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F125" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G125" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3990,13 +4014,13 @@
         <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F126" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G126" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4016,13 +4040,13 @@
         <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F127" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G127" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4042,13 +4066,13 @@
         <v>86</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F128" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G128" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4068,13 +4092,13 @@
         <v>87</v>
       </c>
       <c r="E129" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F129" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G129" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4094,13 +4118,13 @@
         <v>88</v>
       </c>
       <c r="E130" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F130" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G130" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4120,13 +4144,13 @@
         <v>32</v>
       </c>
       <c r="E131" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F131" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G131" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4146,13 +4170,13 @@
         <v>84</v>
       </c>
       <c r="E132" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F132" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G132" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4172,13 +4196,13 @@
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F133" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G133" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4198,13 +4222,13 @@
         <v>36</v>
       </c>
       <c r="E134" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F134" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G134" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4224,13 +4248,13 @@
         <v>89</v>
       </c>
       <c r="E135" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F135" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G135" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4250,13 +4274,13 @@
         <v>90</v>
       </c>
       <c r="E136" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F136" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G136" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4276,13 +4300,13 @@
         <v>55</v>
       </c>
       <c r="E137" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F137" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G137" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4302,13 +4326,13 @@
         <v>91</v>
       </c>
       <c r="E138" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F138" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G138" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4328,13 +4352,13 @@
         <v>92</v>
       </c>
       <c r="E139" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F139" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G139" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4354,13 +4378,13 @@
         <v>50</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F140" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G140" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4380,13 +4404,13 @@
         <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F141" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4406,13 +4430,13 @@
         <v>94</v>
       </c>
       <c r="E142" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F142" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G142" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4432,13 +4456,13 @@
         <v>95</v>
       </c>
       <c r="E143" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F143" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G143" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4458,13 +4482,13 @@
         <v>96</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F144" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G144" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4484,13 +4508,13 @@
         <v>97</v>
       </c>
       <c r="E145" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F145" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G145" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4510,13 +4534,13 @@
         <v>98</v>
       </c>
       <c r="E146" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F146" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G146" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4536,13 +4560,13 @@
         <v>99</v>
       </c>
       <c r="E147" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F147" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G147" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4562,13 +4586,13 @@
         <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F148" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G148" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4588,13 +4612,13 @@
         <v>47</v>
       </c>
       <c r="E149" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F149" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G149" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4614,13 +4638,13 @@
         <v>100</v>
       </c>
       <c r="E150" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F150" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G150" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4640,13 +4664,13 @@
         <v>101</v>
       </c>
       <c r="E151" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F151" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G151" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4666,13 +4690,13 @@
         <v>45</v>
       </c>
       <c r="E152" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F152" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G152" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4692,13 +4716,13 @@
         <v>32</v>
       </c>
       <c r="E153" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F153" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G153" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4718,13 +4742,13 @@
         <v>36</v>
       </c>
       <c r="E154" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F154" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G154" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4744,13 +4768,13 @@
         <v>102</v>
       </c>
       <c r="E155" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F155" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G155" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4770,13 +4794,13 @@
         <v>47</v>
       </c>
       <c r="E156" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F156" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G156" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4796,13 +4820,13 @@
         <v>103</v>
       </c>
       <c r="E157" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F157" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G157" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4822,13 +4846,13 @@
         <v>104</v>
       </c>
       <c r="E158" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F158" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G158" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4848,13 +4872,13 @@
         <v>105</v>
       </c>
       <c r="E159" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F159" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G159" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4874,13 +4898,13 @@
         <v>55</v>
       </c>
       <c r="E160" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F160" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4900,13 +4924,13 @@
         <v>106</v>
       </c>
       <c r="E161" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F161" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G161" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -4926,13 +4950,13 @@
         <v>36</v>
       </c>
       <c r="E162" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F162" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G162" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -4952,13 +4976,13 @@
         <v>32</v>
       </c>
       <c r="E163" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F163" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G163" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -4978,13 +5002,13 @@
         <v>107</v>
       </c>
       <c r="E164" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F164" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G164" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5004,13 +5028,13 @@
         <v>88</v>
       </c>
       <c r="E165" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F165" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5030,13 +5054,13 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F166" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G166" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5056,13 +5080,13 @@
         <v>36</v>
       </c>
       <c r="E167" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F167" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G167" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5082,13 +5106,13 @@
         <v>45</v>
       </c>
       <c r="E168" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F168" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5108,13 +5132,13 @@
         <v>108</v>
       </c>
       <c r="E169" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F169" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5134,15 +5158,639 @@
         <v>109</v>
       </c>
       <c r="E170" t="s">
+        <v>117</v>
+      </c>
+      <c r="F170" t="s">
+        <v>120</v>
+      </c>
+      <c r="G170" t="s">
+        <v>122</v>
+      </c>
+      <c r="H170">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45600.41666666666</v>
+      </c>
+      <c r="D171" t="s">
         <v>110</v>
       </c>
-      <c r="F170" t="s">
+      <c r="E171" t="s">
+        <v>117</v>
+      </c>
+      <c r="F171" t="s">
+        <v>121</v>
+      </c>
+      <c r="G171" t="s">
+        <v>122</v>
+      </c>
+      <c r="H171">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45607.44861111111</v>
+      </c>
+      <c r="D172" t="s">
+        <v>111</v>
+      </c>
+      <c r="E172" t="s">
+        <v>117</v>
+      </c>
+      <c r="F172" t="s">
+        <v>121</v>
+      </c>
+      <c r="G172" t="s">
+        <v>122</v>
+      </c>
+      <c r="H172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45614.46180555555</v>
+      </c>
+      <c r="D173" t="s">
+        <v>112</v>
+      </c>
+      <c r="E173" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" t="s">
+        <v>121</v>
+      </c>
+      <c r="G173" t="s">
+        <v>122</v>
+      </c>
+      <c r="H173">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45621.48611111111</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>117</v>
+      </c>
+      <c r="F174" t="s">
+        <v>121</v>
+      </c>
+      <c r="G174" t="s">
+        <v>122</v>
+      </c>
+      <c r="H174">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45628.49861111111</v>
+      </c>
+      <c r="D175" t="s">
         <v>113</v>
       </c>
-      <c r="G170" t="s">
+      <c r="E175" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" t="s">
+        <v>121</v>
+      </c>
+      <c r="G175" t="s">
+        <v>122</v>
+      </c>
+      <c r="H175">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45636.48125</v>
+      </c>
+      <c r="D176" t="s">
         <v>114</v>
       </c>
-      <c r="H170">
+      <c r="E176" t="s">
+        <v>117</v>
+      </c>
+      <c r="F176" t="s">
+        <v>121</v>
+      </c>
+      <c r="G176" t="s">
+        <v>122</v>
+      </c>
+      <c r="H176">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45642.49236111111</v>
+      </c>
+      <c r="D177" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" t="s">
+        <v>117</v>
+      </c>
+      <c r="F177" t="s">
+        <v>121</v>
+      </c>
+      <c r="G177" t="s">
+        <v>122</v>
+      </c>
+      <c r="H177">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45649.40972222222</v>
+      </c>
+      <c r="D178" t="s">
+        <v>91</v>
+      </c>
+      <c r="E178" t="s">
+        <v>117</v>
+      </c>
+      <c r="F178" t="s">
+        <v>121</v>
+      </c>
+      <c r="G178" t="s">
+        <v>122</v>
+      </c>
+      <c r="H178">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45656.38888888889</v>
+      </c>
+      <c r="D179" t="s">
+        <v>32</v>
+      </c>
+      <c r="E179" t="s">
+        <v>117</v>
+      </c>
+      <c r="F179" t="s">
+        <v>121</v>
+      </c>
+      <c r="G179" t="s">
+        <v>122</v>
+      </c>
+      <c r="H179">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45663.44652777778</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>117</v>
+      </c>
+      <c r="F180" t="s">
+        <v>121</v>
+      </c>
+      <c r="G180" t="s">
+        <v>122</v>
+      </c>
+      <c r="H180">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45670.54513888889</v>
+      </c>
+      <c r="D181" t="s">
+        <v>113</v>
+      </c>
+      <c r="E181" t="s">
+        <v>117</v>
+      </c>
+      <c r="F181" t="s">
+        <v>121</v>
+      </c>
+      <c r="G181" t="s">
+        <v>122</v>
+      </c>
+      <c r="H181">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45677.48819444444</v>
+      </c>
+      <c r="D182" t="s">
+        <v>113</v>
+      </c>
+      <c r="E182" t="s">
+        <v>117</v>
+      </c>
+      <c r="F182" t="s">
+        <v>121</v>
+      </c>
+      <c r="G182" t="s">
+        <v>122</v>
+      </c>
+      <c r="H182">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45685.48055555556</v>
+      </c>
+      <c r="D183" t="s">
+        <v>115</v>
+      </c>
+      <c r="E183" t="s">
+        <v>117</v>
+      </c>
+      <c r="F183" t="s">
+        <v>121</v>
+      </c>
+      <c r="G183" t="s">
+        <v>122</v>
+      </c>
+      <c r="H183">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45699.46736111111</v>
+      </c>
+      <c r="D184" t="s">
+        <v>75</v>
+      </c>
+      <c r="E184" t="s">
+        <v>117</v>
+      </c>
+      <c r="F184" t="s">
+        <v>121</v>
+      </c>
+      <c r="G184" t="s">
+        <v>122</v>
+      </c>
+      <c r="H184">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45705.47638888889</v>
+      </c>
+      <c r="D185" t="s">
+        <v>50</v>
+      </c>
+      <c r="E185" t="s">
+        <v>117</v>
+      </c>
+      <c r="F185" t="s">
+        <v>121</v>
+      </c>
+      <c r="G185" t="s">
+        <v>122</v>
+      </c>
+      <c r="H185">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45712.50972222222</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>117</v>
+      </c>
+      <c r="F186" t="s">
+        <v>121</v>
+      </c>
+      <c r="G186" t="s">
+        <v>122</v>
+      </c>
+      <c r="H186">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45719.5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" t="s">
+        <v>117</v>
+      </c>
+      <c r="F187" t="s">
+        <v>121</v>
+      </c>
+      <c r="G187" t="s">
+        <v>122</v>
+      </c>
+      <c r="H187">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45726.49791666667</v>
+      </c>
+      <c r="D188" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" t="s">
+        <v>117</v>
+      </c>
+      <c r="F188" t="s">
+        <v>121</v>
+      </c>
+      <c r="G188" t="s">
+        <v>122</v>
+      </c>
+      <c r="H188">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45733.49027777778</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>117</v>
+      </c>
+      <c r="F189" t="s">
+        <v>121</v>
+      </c>
+      <c r="G189" t="s">
+        <v>122</v>
+      </c>
+      <c r="H189">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45741.48194444444</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>117</v>
+      </c>
+      <c r="F190" t="s">
+        <v>121</v>
+      </c>
+      <c r="G190" t="s">
+        <v>122</v>
+      </c>
+      <c r="H190">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45747.50416666667</v>
+      </c>
+      <c r="D191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191" t="s">
+        <v>117</v>
+      </c>
+      <c r="F191" t="s">
+        <v>121</v>
+      </c>
+      <c r="G191" t="s">
+        <v>122</v>
+      </c>
+      <c r="H191">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45754.53263888889</v>
+      </c>
+      <c r="D192" t="s">
+        <v>75</v>
+      </c>
+      <c r="E192" t="s">
+        <v>117</v>
+      </c>
+      <c r="F192" t="s">
+        <v>121</v>
+      </c>
+      <c r="G192" t="s">
+        <v>122</v>
+      </c>
+      <c r="H192">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45769.52847222222</v>
+      </c>
+      <c r="D193" t="s">
+        <v>116</v>
+      </c>
+      <c r="E193" t="s">
+        <v>117</v>
+      </c>
+      <c r="F193" t="s">
+        <v>121</v>
+      </c>
+      <c r="G193" t="s">
+        <v>122</v>
+      </c>
+      <c r="H193">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45775.5375</v>
+      </c>
+      <c r="D194" t="s">
+        <v>113</v>
+      </c>
+      <c r="E194" t="s">
+        <v>117</v>
+      </c>
+      <c r="F194" t="s">
+        <v>121</v>
+      </c>
+      <c r="G194" t="s">
+        <v>122</v>
+      </c>
+      <c r="H194">
         <v>600</v>
       </c>
     </row>
